--- a/dat/filled/lettuce_2021-10-03_3x4.xlsx
+++ b/dat/filled/lettuce_2021-10-03_3x4.xlsx
@@ -88,6 +88,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -431,7 +499,7 @@
           <t>SIEMBRA</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="3" t="n">
         <v>60</v>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -476,7 +544,7 @@
           <t>PROGENIE</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="3" t="n">
         <v>27</v>
       </c>
       <c r="N3" s="3" t="inlineStr">
@@ -521,7 +589,7 @@
           <t>FERTILIDAD</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="3" t="n">
         <v>0.45</v>
       </c>
       <c r="N4" s="3" t="inlineStr">
@@ -566,7 +634,7 @@
           <t>INVERSION</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="3" t="n">
         <v>2.222222222222222</v>
       </c>
       <c r="N5" s="3" t="inlineStr">
@@ -581,7 +649,7 @@
           <t>AREA</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="3" t="n">
         <v>192</v>
       </c>
       <c r="N6" s="3" t="inlineStr">
@@ -596,7 +664,7 @@
           <t>DENSIDAD</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="3" t="n">
         <v>0.3125</v>
       </c>
       <c r="N7" s="3" t="inlineStr">
@@ -611,7 +679,7 @@
           <t>OCUPACION</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="3" t="n">
         <v>3.2</v>
       </c>
       <c r="N8" s="3" t="inlineStr">
@@ -626,7 +694,7 @@
           <t>COLONIZACION</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="3" t="n">
         <v>2.25</v>
       </c>
       <c r="N9" s="3" t="inlineStr">
@@ -641,7 +709,7 @@
           <t>RENDIMIENTO</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="3" t="n">
         <v>0.140625</v>
       </c>
       <c r="N10" s="3" t="inlineStr">
@@ -656,7 +724,7 @@
           <t>HABITAT</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="3" t="n">
         <v>7.111111111111111</v>
       </c>
       <c r="N11" s="3" t="inlineStr">
